--- a/bin/Debug/net6.0/PasswordClient.xlsx
+++ b/bin/Debug/net6.0/PasswordClient.xlsx
@@ -23,7 +23,7 @@
     </d:r>
   </si>
   <si>
-    <t>57YOH1NZ5CYAHMuOMewGIngFrAnYvjWc7VP0jclh9gY=</t>
+    <t>hizDkgUw/IcBElCDLSywZv4M3BArCyHm3/IXvAEVHRs=</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" password="df52"/>
+  <sheetProtection sheet="1" password="edf9"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/bin/Debug/net6.0/PasswordClient.xlsx
+++ b/bin/Debug/net6.0/PasswordClient.xlsx
@@ -23,7 +23,7 @@
     </d:r>
   </si>
   <si>
-    <t>hizDkgUw/IcBElCDLSywZv4M3BArCyHm3/IXvAEVHRs=</t>
+    <t>V5LW4udesM0SXv/8EK4zFeYCbx3j/zntK3XvvlePuuU=</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" password="edf9"/>
+  <sheetProtection sheet="1" password="e533"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/bin/Debug/net6.0/PasswordClient.xlsx
+++ b/bin/Debug/net6.0/PasswordClient.xlsx
@@ -23,7 +23,7 @@
     </d:r>
   </si>
   <si>
-    <t>V5LW4udesM0SXv/8EK4zFeYCbx3j/zntK3XvvlePuuU=</t>
+    <t>skKbEVgNuE7xCrDNSJtU+kgyhifW4OJmz3ABwsdtWZI=</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" password="e533"/>
+  <sheetProtection sheet="1" password="e777"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/bin/Debug/net6.0/PasswordClient.xlsx
+++ b/bin/Debug/net6.0/PasswordClient.xlsx
@@ -23,7 +23,7 @@
     </d:r>
   </si>
   <si>
-    <t>skKbEVgNuE7xCrDNSJtU+kgyhifW4OJmz3ABwsdtWZI=</t>
+    <t>kB8d6xW46c2bBF3k/QUWyhiKJpIxh9jKGYeMO9s2yQI=</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" password="e777"/>
+  <sheetProtection sheet="1" password="e849"/>
   <headerFooter/>
 </worksheet>
 </file>